--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5495495495495496</v>
+        <v>0.5457317073170732</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9728260869565217</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5479041916167665</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7079303675048357</v>
+        <v>0.6992187500000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.4820359281437126</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.2158284876373935</v>
+        <v>0.1940960851353141</v>
       </c>
       <c r="J2" t="n">
-        <v>2849.915044779921</v>
+        <v>2608.794801594409</v>
       </c>
       <c r="K2" t="n">
-        <v>11113188.61923287</v>
+        <v>10450582.97387591</v>
       </c>
       <c r="L2" t="n">
-        <v>3333.644944986324</v>
+        <v>3232.736143559494</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.060797786519114</v>
+        <v>-0.9379260982870321</v>
       </c>
     </row>
   </sheetData>
